--- a/data/sector_correlations/2013_intra.xlsx
+++ b/data/sector_correlations/2013_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6081235654168792</v>
+        <v>0.6806635493997961</v>
       </c>
     </row>
     <row r="3">
@@ -468,431 +468,411 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5012494391615495</v>
+        <v>0.5028578579683908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4525751764934493</v>
+        <v>0.4996720732227125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3848334592218305</v>
+        <v>0.4554211694031084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3654073272666662</v>
+        <v>0.4434552474521457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3344940710488736</v>
+        <v>0.4197651903675268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Water Utilities(13)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.331889176162211</v>
+        <v>0.3924305106678252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3263741672776623</v>
+        <v>0.3515205790689357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3195755395178446</v>
+        <v>0.3499373854978178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3183414925172502</v>
+        <v>0.3261202385101064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Food &amp; Staples Retailing(15)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3095211343106541</v>
+        <v>0.3222612338074511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(21)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2768872869712579</v>
+        <v>0.3199989557889833</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Airlines(15)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2756424842809476</v>
+        <v>0.3195755395178446</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2647937083370425</v>
+        <v>0.3116040117463391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail(19)</t>
+          <t>Food &amp; Staples Retailing(15)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2615426189747326</v>
+        <v>0.3095211343106541</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2600869797451337</v>
+        <v>0.2764694756478722</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Specialty Retail(63)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2595281637324988</v>
+        <v>0.275584626156352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2592092843970695</v>
+        <v>0.2704492994662344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2425742552758281</v>
+        <v>0.2576480116098388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(18)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2344665045829631</v>
+        <v>0.25398121351853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2242662771804901</v>
+        <v>0.2460280766957026</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2176894737360568</v>
+        <v>0.2409153622487695</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(30)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2115154872974532</v>
+        <v>0.231530059686375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2090588971866244</v>
+        <v>0.2264936990572523</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Food Products(47)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1950132327742446</v>
+        <v>0.223127485609525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1903251083069489</v>
+        <v>0.2230322642084072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1884742368940305</v>
+        <v>0.2212959646850693</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Beverages(22)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1835305741293811</v>
+        <v>0.2202056081988574</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1747536245731584</v>
+        <v>0.2151226296637223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1731348323266541</v>
+        <v>0.2133866368881704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1707486817389484</v>
+        <v>0.2072231145600254</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1661030260407196</v>
+        <v>0.2058945325758229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1609605513904775</v>
+        <v>0.1881941681680455</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.160426250833397</v>
+        <v>0.1830530634682372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1581681640190724</v>
+        <v>0.1693941077824654</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1519916242703201</v>
+        <v>0.153903120944962</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1476103433864714</v>
+        <v>0.1408272132494436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1320143389785996</v>
+        <v>0.1382521755303223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1293916343968267</v>
+        <v>0.1327046731336035</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(56)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.116885081894738</v>
+        <v>0.1299470991891688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Communications Equipment(50)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1090651753559157</v>
+        <v>0.1235769747809436</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1012543493685343</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Biotechnology(163)</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.09309047973054799</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.08820986321576507</v>
+        <v>0.09839953425492326</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2013_intra.xlsx
+++ b/data/sector_correlations/2013_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,240 +638,250 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(17)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2576480116098388</v>
+        <v>0.2624487793594075</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.25398121351853</v>
+        <v>0.2576480116098388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2460280766957026</v>
+        <v>0.25398121351853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2409153622487695</v>
+        <v>0.2460280766957026</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.231530059686375</v>
+        <v>0.2409153622487695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2264936990572523</v>
+        <v>0.231530059686375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.223127485609525</v>
+        <v>0.2264936990572523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2230322642084072</v>
+        <v>0.223127485609525</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2212959646850693</v>
+        <v>0.2230322642084072</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2202056081988574</v>
+        <v>0.2212959646850693</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2151226296637223</v>
+        <v>0.2202056081988574</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2133866368881704</v>
+        <v>0.2151226296637223</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2072231145600254</v>
+        <v>0.2133866368881704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2058945325758229</v>
+        <v>0.2072231145600254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1881941681680455</v>
+        <v>0.2058945325758229</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1830530634682372</v>
+        <v>0.1881941681680455</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1693941077824654</v>
+        <v>0.1830530634682372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.153903120944962</v>
+        <v>0.1693941077824654</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1408272132494436</v>
+        <v>0.153903120944962</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1382521755303223</v>
+        <v>0.1408272132494436</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1327046731336035</v>
+        <v>0.1382521755303223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1299470991891688</v>
+        <v>0.1327046731336035</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1235769747809436</v>
+        <v>0.1299470991891688</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Biotechnology(126)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1235769747809436</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>0.09839953425492326</v>
       </c>
     </row>

--- a/data/sector_correlations/2013_intra.xlsx
+++ b/data/sector_correlations/2013_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,231 +508,231 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4197651903675268</v>
+        <v>0.4395536947098878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3924305106678252</v>
+        <v>0.4197651903675268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3515205790689357</v>
+        <v>0.3924305106678252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3499373854978178</v>
+        <v>0.3569377204730874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3261202385101064</v>
+        <v>0.3515205790689357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3222612338074511</v>
+        <v>0.3438736672397285</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Water Utilities(13)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3199989557889833</v>
+        <v>0.3365577813442983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3195755395178446</v>
+        <v>0.3273196891774619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Airlines(14)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3116040117463391</v>
+        <v>0.3195755395178446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Food &amp; Staples Retailing(15)</t>
+          <t>Specialty Retail(59)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3095211343106541</v>
+        <v>0.3192409114387076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2764694756478722</v>
+        <v>0.3133605361086169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Consumer Finance(15)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.275584626156352</v>
+        <v>0.3116040117463391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2704492994662344</v>
+        <v>0.2801910920682691</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2624487793594075</v>
+        <v>0.2796826390963346</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(17)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2576480116098388</v>
+        <v>0.275584626156352</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.25398121351853</v>
+        <v>0.2704492994662344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2460280766957026</v>
+        <v>0.2576480116098388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2409153622487695</v>
+        <v>0.2460280766957026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.231530059686375</v>
+        <v>0.2409153622487695</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2264936990572523</v>
+        <v>0.2380411178701261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.223127485609525</v>
+        <v>0.2238821841357235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2230322642084072</v>
+        <v>0.223127485609525</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2212959646850693</v>
+        <v>0.2230322642084072</v>
       </c>
     </row>
     <row r="31">
@@ -748,11 +748,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Food Products(46)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2151226296637223</v>
+        <v>0.216020694915553</v>
       </c>
     </row>
     <row r="33">
@@ -778,11 +778,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2058945325758229</v>
+        <v>0.1941875669495479</v>
       </c>
     </row>
     <row r="36">
@@ -798,91 +798,121 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1830530634682372</v>
+        <v>0.182221272164292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1693941077824654</v>
+        <v>0.1715759940980815</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.153903120944962</v>
+        <v>0.1697578959724912</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1408272132494436</v>
+        <v>0.1581208036341931</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1382521755303223</v>
+        <v>0.1429583227492184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1327046731336035</v>
+        <v>0.1408272132494436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1299470991891688</v>
+        <v>0.1390750693558992</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1235769747809436</v>
+        <v>0.1299470991891688</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.09839953425492326</v>
+        <v>0.1292072943183608</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals(53)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1272227864674263</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Biotechnology(128)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1240848670924985</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0934684943417734</v>
       </c>
     </row>
   </sheetData>
